--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Scleroderma_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Scleroderma_spec_overall.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pain relieved with regurgitation is present.</t>
+          <t>Antacids no longer providing relief is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pain relief with regurgitation is more indicative of a functional gastrointestinal disorder rather than Scleroderma.</t>
+          <t>This suggests a non-Scleroderma related cause for the symptoms, as Scleroderma typically involves esophageal dysmotility that may respond to antacids.</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Long-standing heartburn (duration of years) is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>While Scleroderma can cause reflux, the lack of relief from antacids suggests a different etiology.</t>
+          <t>Chronic heartburn is more commonly associated with gastroesophageal reflux disease (GERD) rather than Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -515,12 +515,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Long-standing reflux (duration of years) is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic heartburn is more commonly associated with gastroesophageal reflux disease (GERD) than Scleroderma.</t>
+          <t>Chronic reflux symptoms are more indicative of GERD and less specific to Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -537,12 +537,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chronic reflux symptoms are typically seen in GERD and not specifically indicative of Scleroderma.</t>
+          <t>This finding suggests a mechanical issue related to reflux rather than esophageal motility problems seen in Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -559,12 +559,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Pain worse when lying down (positional) is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice suggests no significant laryngeal involvement, which can occur in Scleroderma.</t>
+          <t>Positional pain is more characteristic of reflux conditions rather than the esophageal involvement seen in Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -622,12 +622,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is often associated with various systemic conditions; its absence may suggest a lower likelihood of Scleroderma.</t>
+          <t>Radiation exposure is a known risk factor for scleroderma; its absence weakens the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -644,78 +644,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>Absence of diagnosed hypertension</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is a risk factor for many vascular and autoimmune diseases; its absence may indicate a lower risk for Scleroderma.</t>
+          <t>Hypertension is often associated with scleroderma; its absence suggests a lower likelihood of the disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Amlodipine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is often used to manage hypertension and Raynaud's phenomenon, which can be associated with Scleroderma.</t>
+          <t>Amlodipine is a calcium channel blocker that may be used to manage hypertension, which can be associated with scleroderma-related complications.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Absence of diagnosed coronary artery disease</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation exposure is a known risk factor for certain autoimmune diseases; its absence may reduce the likelihood of Scleroderma.</t>
+          <t>Coronary artery disease can be a complication of scleroderma; its absence may indicate a lower risk for the condition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>Absence of alcohol use disorder</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of environmental allergies may suggest a non-allergic etiology for symptoms, which can align with Scleroderma.</t>
+          <t>While not directly indicative, the absence of alcohol use disorder may suggest a lower likelihood of other conditions that could mimic scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previously diagnosed coronary artery disease is absent</t>
+          <t>Absence of prior myocardial infarction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of coronary artery disease may suggest a lower cardiovascular risk profile, which can be associated with Scleroderma.</t>
+          <t>A history of myocardial infarction is often seen in patients with scleroderma; its absence suggests a lower likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of asthma</t>
+          <t>Absence of nicotine dependence</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asthma is often associated with other autoimmune conditions; its absence may support the likelihood of Scleroderma.</t>
+          <t>Similar to alcohol use disorder, the absence of nicotine dependence may indicate a lower risk for conditions that could complicate or mimic scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diagnosed hypertension is absent</t>
+          <t>Absence of obesity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension is often seen in patients with Scleroderma; its absence may indicate a lower likelihood of the disease.</t>
+          <t>Obesity can be a risk factor for various conditions, including those that may mimic scleroderma; its absence may indicate a lower risk.</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of alcohol use may suggest a lower risk for developing certain autoimmune conditions, including Scleroderma.</t>
+          <t>A lack of family history of cancer may suggest a lower risk for certain autoimmune diseases, including Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is often associated with increased risk for various diseases; its absence may suggest a lower risk for Scleroderma.</t>
+          <t>Absence of recent travel may indicate lower exposure to environmental triggers that can exacerbate autoimmune conditions.</t>
         </is>
       </c>
     </row>
@@ -817,56 +817,56 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate lower exposure to environmental triggers that could exacerbate or initiate autoimmune conditions.</t>
+          <t>Absence of recent medical procedures may suggest a lower likelihood of complications or triggers related to Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer may suggest a different genetic predisposition, potentially favoring autoimmune conditions like Scleroderma.</t>
+          <t>While this finding does not directly support Scleroderma, the absence of a common autoimmune condition may suggest a different autoimmune profile.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures may suggest a lower likelihood of complications or triggers that could lead to Scleroderma.</t>
+          <t>Absence of gestational complications may indicate a lower risk for autoimmune conditions that can be influenced by pregnancy.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>While not directly linked, the absence of Rheumatoid Arthritis in the family may suggest a different autoimmune profile, potentially favoring Scleroderma.</t>
+          <t>Absence of alcohol use may indicate a healthier lifestyle, which can be a factor in managing autoimmune diseases.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may indicate a lower risk for autoimmune conditions, including Scleroderma, which can be influenced by pregnancy.</t>
+          <t>Current non-use of tobacco may suggest a lower risk for developing autoimmune diseases, including Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of hand thickening is a strong indicator against Scleroderma, as skin thickening is a hallmark feature of the disease.</t>
+          <t>Hand thickening is a classic sign of Scleroderma; its absence strongly suggests that the diagnosis is unlikely.</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of finger ulcers, which can occur in Scleroderma due to vascular changes, supports the idea that Scleroderma is not present.</t>
+          <t>Finger ulcers are a common manifestation of Scleroderma; their absence is a strong indicator against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of weakness suggests that there is no significant muscle involvement, which can be seen in Scleroderma, thus arguing against the diagnosis.</t>
+          <t>Muscle weakness can occur in Scleroderma; its absence suggests that the diagnosis is less likely.</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice suggests that there is no significant involvement of the vocal cords, which can occur in Scleroderma, but does not rule it out.</t>
+          <t>A hoarse voice can be associated with esophageal involvement in Scleroderma; its absence does not support the diagnosis but is not definitive.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Joint swelling is often associated with Scleroderma; its absence suggests that inflammatory or autoimmune processes are not present.</t>
+          <t>Joint swelling can be associated with Scleroderma; its absence is a strong indicator against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of cough may indicate that there is no pulmonary involvement, which can occur in Scleroderma, but does not exclude the diagnosis.</t>
+          <t>Cough can be associated with pulmonary involvement in Scleroderma; its absence does not support the diagnosis but is not definitive.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of rheumatoid nodules, which can be associated with autoimmune conditions, further supports the idea that Scleroderma is not present.</t>
+          <t>Rheumatoid nodules are not typically associated with Scleroderma; their absence does not support the diagnosis.</t>
         </is>
       </c>
     </row>

--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Scleroderma_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Scleroderma_spec_overall.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpi" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common manifestation of Scleroderma, indicating vascular involvement.</t>
+          <t>Raynaud's phenomenon is a common and specific finding in Scleroderma, often preceding other symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Hand thickness reported is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This suggests a non-Scleroderma related cause for the symptoms, as Scleroderma typically involves esophageal dysmotility that may respond to antacids.</t>
+          <t>Skin thickening, particularly of the hands, is a hallmark of Scleroderma, and its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
@@ -488,83 +488,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias are dilated small blood vessels often seen in Scleroderma patients, supporting the diagnosis.</t>
+          <t>Telangiectasias are small dilated blood vessels that are frequently seen in Scleroderma, particularly in the limited form.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Finger ulcers reported is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic heartburn is more commonly associated with gastroesophageal reflux disease (GERD) rather than Scleroderma.</t>
+          <t>Digital ulcers are common in Scleroderma due to vascular involvement, and their absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Difficulty swallowing solids is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia, particularly for liquids, can occur in Scleroderma due to esophageal motility issues.</t>
+          <t>Esophageal dysmotility, leading to difficulty swallowing, is a common manifestation of Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Weakness reported is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic reflux symptoms are more indicative of GERD and less specific to Scleroderma.</t>
+          <t>Muscle weakness can be associated with Scleroderma, and its absence may suggest an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Difficulty swallowing liquids is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Similar to liquids, difficulty swallowing solids can indicate esophageal involvement in Scleroderma.</t>
+          <t>Dysphagia for liquids can occur in Scleroderma due to esophageal involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pain relieved with regurgitation is present.</t>
+          <t>Multiple symmetric joints hurt is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This finding suggests a mechanical issue related to reflux rather than esophageal motility problems seen in Scleroderma.</t>
+          <t>Polyarthralgia is often seen in Scleroderma, and its absence may reduce the likelihood of the disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight loss can occur in Scleroderma due to dysphagia and gastrointestinal complications.</t>
+          <t>Hand pain, especially if associated with skin changes, can be indicative of Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pain worse when lying down (positional) is present.</t>
+          <t>Morning stiffness is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Positional pain is more characteristic of reflux conditions rather than the esophageal involvement seen in Scleroderma.</t>
+          <t>Morning stiffness is a common symptom in connective tissue diseases, including Scleroderma, and its absence may suggest a different condition.</t>
         </is>
       </c>
     </row>
@@ -612,110 +612,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scleroderma is more prevalent in females than males, which supports the likelihood of the diagnosis.</t>
+          <t>Scleroderma is more common in females, which increases the likelihood of the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Alcohol use disorder is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation exposure is a known risk factor for scleroderma; its absence weakens the likelihood of the diagnosis.</t>
+          <t>The absence of alcohol use disorder does not directly argue against Scleroderma but is more common in other conditions.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scleroderma commonly presents in middle-aged individuals, making this finding relevant to the diagnosis.</t>
+          <t>Scleroderma often presents in middle-aged individuals, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Nicotine dependence is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with scleroderma; its absence suggests a lower likelihood of the disease.</t>
+          <t>The absence of nicotine dependence does not directly argue against Scleroderma but is more common in other conditions.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker that may be used to manage hypertension, which can be associated with scleroderma-related complications.</t>
+          <t>Amlodipine is sometimes used to manage Raynaud's phenomenon, which is associated with Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of diagnosed coronary artery disease</t>
+          <t>Prior treatment with radiation to the neck, arm, or jaw is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coronary artery disease can be a complication of scleroderma; its absence may indicate a lower risk for the condition.</t>
+          <t>Radiation treatment can sometimes lead to scleroderma-like changes, so its absence slightly argues against secondary causes of scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Environmental allergies is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not directly indicative, the absence of alcohol use disorder may suggest a lower likelihood of other conditions that could mimic scleroderma.</t>
+          <t>The absence of environmental allergies does not directly support Scleroderma but does not contradict it either.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of prior myocardial infarction</t>
+          <t>Previously diagnosed Coronary Artery Disease is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A history of myocardial infarction is often seen in patients with scleroderma; its absence suggests a lower likelihood of the diagnosis.</t>
+          <t>The absence of coronary artery disease does not directly argue against Scleroderma but is more common in other conditions.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Asthma is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol use disorder, the absence of nicotine dependence may indicate a lower risk for conditions that could complicate or mimic scleroderma.</t>
+          <t>The absence of asthma does not directly support Scleroderma but does not contradict it either.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Type 2 diabetes is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Obesity can be a risk factor for various conditions, including those that may mimic scleroderma; its absence may indicate a lower risk.</t>
+          <t>The absence of type 2 diabetes does not directly argue against Scleroderma but is more common in other conditions.</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate autoimmune conditions, including Scleroderma, making it a relevant factor.</t>
+          <t>Social stress can exacerbate autoimmune conditions, including Scleroderma, by potentially triggering or worsening symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of family history of cancer may suggest a lower risk for certain autoimmune diseases, including Scleroderma.</t>
+          <t>A family history of autoimmune diseases like Rheumatoid Arthritis can increase the likelihood of Scleroderma; its absence slightly argues against it.</t>
         </is>
       </c>
     </row>
@@ -790,17 +790,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with an increased risk of developing autoimmune diseases, including Scleroderma.</t>
+          <t>While not directly linked to Scleroderma, prior tobacco use can contribute to vascular issues, which are relevant in Scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate lower exposure to environmental triggers that can exacerbate autoimmune conditions.</t>
+          <t>Current tobacco use can exacerbate symptoms related to Scleroderma; its absence slightly argues against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -812,17 +812,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardiovascular issues can be associated with autoimmune diseases, and a family history may suggest a genetic predisposition.</t>
+          <t>Cardiovascular issues can be associated with Scleroderma, although this is a weak association.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent medical procedures may suggest a lower likelihood of complications or triggers related to Scleroderma.</t>
+          <t>While not directly related, a family history of cancer can sometimes be associated with autoimmune conditions; its absence slightly argues against Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -834,17 +834,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While this finding does not directly support Scleroderma, the absence of a common autoimmune condition may suggest a different autoimmune profile.</t>
+          <t>The absence of a family history of Rheumatoid Arthritis does not strongly support Scleroderma but does not rule it out either.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of gestational complications may indicate a lower risk for autoimmune conditions that can be influenced by pregnancy.</t>
+          <t>Recent travel can sometimes expose individuals to environmental triggers that may exacerbate autoimmune conditions; its absence slightly argues against Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use may indicate a healthier lifestyle, which can be a factor in managing autoimmune diseases.</t>
+          <t>The absence of alcohol use does not directly support Scleroderma but avoids confounding factors related to liver involvement.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current non-use of tobacco may suggest a lower risk for developing autoimmune diseases, including Scleroderma.</t>
+          <t>Recent medical procedures can sometimes trigger autoimmune responses; their absence slightly argues against Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -914,110 +914,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Hyperlipidemia on lab testing is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are small dilated blood vessels that are commonly seen in patients with Scleroderma, making this finding supportive of the diagnosis.</t>
+          <t>Hyperlipidemia is not a classic finding in Scleroderma, but its presence does not rule out the disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent.</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hand thickening is a classic sign of Scleroderma; its absence strongly suggests that the diagnosis is unlikely.</t>
+          <t>The absence of ILD is significant against Scleroderma, as ILD is a common pulmonary manifestation.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>ANA strong positive is absent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can occur in Scleroderma due to gastrointestinal involvement and malabsorption, thus supporting the diagnosis.</t>
+          <t>The absence of a strong positive ANA does not support Scleroderma, but it is not definitive against it either.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent.</t>
+          <t>ANA strong positive is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Finger ulcers are a common manifestation of Scleroderma; their absence is a strong indicator against the diagnosis.</t>
+          <t>A strong positive ANA is often present in Scleroderma, so its absence is evidence against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While Raynaud's phenomenon is common in Scleroderma, its absence does not rule it out, but it is a notable finding that can be seen in other conditions.</t>
+          <t>Aspiration is not a specific finding for Scleroderma, so its absence does not strongly support or refute the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>CXR shows widened mediastinum is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Muscle weakness can occur in Scleroderma; its absence suggests that the diagnosis is less likely.</t>
+          <t>While not specific to Scleroderma, the absence of a widened mediastinum does not support the presence of the disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A hoarse voice can be associated with esophageal involvement in Scleroderma; its absence does not support the diagnosis but is not definitive.</t>
+          <t>The absence of ILD does not support Scleroderma, as ILD is a common complication.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Joint swelling can be associated with Scleroderma; its absence is a strong indicator against the diagnosis.</t>
+          <t>Aspiration can occur in Scleroderma due to esophageal involvement, so its absence is slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>CXR shows widened mediastinum is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cough can be associated with pulmonary involvement in Scleroderma; its absence does not support the diagnosis but is not definitive.</t>
+          <t>A widened mediastinum is not a typical finding in Scleroderma, so its absence is not strongly supportive of the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules is absent.</t>
+          <t>Hyperlipidemia on lab testing is present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules are not typically associated with Scleroderma; their absence does not support the diagnosis.</t>
+          <t>Hyperlipidemia is not typically associated with Scleroderma, so its presence does not support the diagnosis.</t>
         </is>
       </c>
     </row>
